--- a/Excel data files/all teams logo.xlsx
+++ b/Excel data files/all teams logo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\Downloads\Power BI_Imp Summary\IPL\IPL Datasets\Clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\powerbi_cricket_dash\Excel data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE00EFF-E565-4648-A062-1E727B05F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFA97D-57DB-4D65-AF7E-6ACA20362505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>Logo</t>
   </si>
@@ -229,6 +218,9 @@
   </si>
   <si>
     <t>Royal Challengers Bengaluru</t>
+  </si>
+  <si>
+    <t>Sunrisers Hyderabad Team</t>
   </si>
 </sst>
 </file>
@@ -633,18 +625,18 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.26953125" customWidth="1"/>
-    <col min="2" max="3" width="50.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="61.21875" customWidth="1"/>
+    <col min="2" max="3" width="50.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -678,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -695,7 +687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -712,7 +704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -729,7 +721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -746,7 +738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -763,7 +755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -780,7 +772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -797,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -814,12 +806,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -844,15 +836,15 @@
       <selection activeCell="C1" sqref="C1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -866,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -880,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -894,7 +886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -908,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -922,7 +914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -936,7 +928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -950,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -964,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -978,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,7 +984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1006,22 +998,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
   </sheetData>

--- a/Excel data files/all teams logo.xlsx
+++ b/Excel data files/all teams logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\powerbi_cricket_dash\Excel data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFA97D-57DB-4D65-AF7E-6ACA20362505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29616AAF-1A67-4038-8B14-262ED7CBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
+    <workbookView xWindow="1680" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Logo</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Sunrisers Hyderabad Team</t>
+  </si>
+  <si>
+    <t>Rajasthan Royals T</t>
+  </si>
+  <si>
+    <t>Punjab Kings T</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -777,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>

--- a/Excel data files/all teams logo.xlsx
+++ b/Excel data files/all teams logo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\powerbi_cricket_dash\Excel data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\powerbi_cricket_dash\Excel data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29616AAF-1A67-4038-8B14-262ED7CBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895A12B-055C-47BB-A9CA-6F4D77ED8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC8DCA95-93ED-484F-814E-78E565B9391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,13 +220,13 @@
     <t>Royal Challengers Bengaluru</t>
   </si>
   <si>
-    <t>Sunrisers Hyderabad Team</t>
-  </si>
-  <si>
-    <t>Rajasthan Royals T</t>
-  </si>
-  <si>
-    <t>Punjab Kings T</t>
+    <t xml:space="preserve">Punjab Kings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasthan Royals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunrisers Hyderabad </t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -817,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
